--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,20 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\walkers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\randomlines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B963012-5572-4855-83AB-CBC479A6D7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D3ABB8-EEF7-414A-B8E4-B16F19E0FD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{B4A43D72-FC50-4503-B786-75524DC1381A}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{B4A43D72-FC50-4503-B786-75524DC1381A}"/>
   </bookViews>
   <sheets>
     <sheet name="Random Spread Efficacy" sheetId="1" r:id="rId1"/>
-    <sheet name="Runtime vs Population 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Random Spread with Populations" sheetId="4" r:id="rId2"/>
+    <sheet name="Best Wait Times vs Population" sheetId="5" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,10 +37,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>200 Population</t>
+  </si>
+  <si>
+    <t>500 Population</t>
+  </si>
+  <si>
+    <t>1000 Population</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Best Wait Time</t>
+  </si>
+  <si>
+    <t>Cycles Per Kid</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>% of Kids that Switched</t>
+  </si>
+  <si>
+    <t>Total Kids That Switched</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -70,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6396,7 +6438,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Runtime Vs Population</a:t>
+              <a:t>Cycles Per Kid vs Wait Time in Various</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Population Sizes</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6439,6 +6485,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random Spread with Populations'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200 Population</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -6453,192 +6510,300 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Runtime vs Population 2'!$A$1:$A$29</c:f>
+              <c:f>'Random Spread with Populations'!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="27">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="37">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Runtime vs Population 2'!$B$1:$B$29</c:f>
+              <c:f>'Random Spread with Populations'!$B$2:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>23.3</c:v>
+                  <c:v>0.41212499999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.71</c:v>
+                  <c:v>0.32494999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.994999999999997</c:v>
+                  <c:v>0.25469999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.125</c:v>
+                  <c:v>0.191575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>141.23500000000001</c:v>
+                  <c:v>0.16144999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>172.465</c:v>
+                  <c:v>0.14119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>228.18</c:v>
+                  <c:v>0.15869999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>275.54500000000002</c:v>
+                  <c:v>0.14760000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>316.44</c:v>
+                  <c:v>0.11785</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>367.32499999999999</c:v>
+                  <c:v>0.14675000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>442.74</c:v>
+                  <c:v>0.14377499999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>448.51499999999999</c:v>
+                  <c:v>0.14377499999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>496.255</c:v>
+                  <c:v>0.13797499999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>569.98</c:v>
+                  <c:v>0.14355000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>560.19500000000005</c:v>
+                  <c:v>0.1593</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>704.97</c:v>
+                  <c:v>0.15210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>725.26499999999999</c:v>
+                  <c:v>0.16109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>747.51</c:v>
+                  <c:v>0.16717500000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>817.94</c:v>
+                  <c:v>0.17462499999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>814.47500000000002</c:v>
+                  <c:v>0.17925000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>864.75</c:v>
+                  <c:v>0.168825</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>930.1</c:v>
+                  <c:v>0.18239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>964.66499999999996</c:v>
+                  <c:v>0.188975</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1035.48</c:v>
+                  <c:v>0.199325</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1019.625</c:v>
+                  <c:v>0.20342500000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1098.21</c:v>
+                  <c:v>0.19772500000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1122.3150000000001</c:v>
+                  <c:v>0.20735000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1224.7449999999999</c:v>
+                  <c:v>0.22967500000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1171.7349999999999</c:v>
+                  <c:v>0.23752500000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.2427</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25727499999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.23675000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.25980000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.254575</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.278775</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.28517499999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.289325</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.29707499999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.28175</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.324075</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.31909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.33034999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.34639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.34412500000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.34117500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6646,7 +6811,673 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D3EC-4164-A7F9-07EB8265E5C5}"/>
+              <c16:uniqueId val="{00000000-721E-4DA9-8D85-8E68F5A0BD0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random Spread with Populations'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 Population</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random Spread with Populations'!$A$2:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random Spread with Populations'!$C$2:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0.55337000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46443000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35226000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32088</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24403999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21261000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17494999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13569000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14607000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10848000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6249999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3810000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1700000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.826000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.3819999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.6870000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.8299999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2919999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.5939999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8700000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.9629999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.1599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.621E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.6370000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.6849999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.6340000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.6310000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.2930000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7810000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.4690000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.8530000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.7770000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.484999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.4839999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.8340000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.040999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.1010000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.3920000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.5610000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.5829999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.2700000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.7220000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.4780000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.7269999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.10529000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-721E-4DA9-8D85-8E68F5A0BD0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random Spread with Populations'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000 Population</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random Spread with Populations'!$A$2:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random Spread with Populations'!$D$2:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0.77426499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57140499999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46450999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37452999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34145500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.278615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26013999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21612999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19256999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16419</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15328999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12734999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11719499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.9754999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10584499999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.979E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.6324999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1529999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5750000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4989999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8674999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.8619999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.7610000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4174999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5015000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5930000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.9424999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4984999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9169999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.1060000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.761E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9869999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0889999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.1360000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.9149999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5520000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.9884999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8505E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.863E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.7484999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.6695E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.7755000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0650000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-721E-4DA9-8D85-8E68F5A0BD0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6659,11 +7490,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1142204031"/>
-        <c:axId val="1633764287"/>
+        <c:axId val="932868448"/>
+        <c:axId val="1211906784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1142204031"/>
+        <c:axId val="932868448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6706,7 +7537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633764287"/>
+        <c:crossAx val="1211906784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6714,7 +7545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1633764287"/>
+        <c:axId val="1211906784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6765,7 +7596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1142204031"/>
+        <c:crossAx val="932868448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6777,6 +7608,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6849,7 +7711,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cycles per Participant vs Population</a:t>
+              <a:t>Best Wait Time vs Population</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Size</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6886,14 +7752,25 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Wait Times vs Population'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best Wait Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -6902,14 +7779,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Runtime vs Population 2'!$A$1:$A$29</c:f>
+              <c:f>'Best Wait Times vs Population'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -6970,136 +7859,82 @@
                 <c:pt idx="19">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Runtime vs Population 2'!$C$1:$C$29</c:f>
+              <c:f>'Best Wait Times vs Population'!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.23300000000000001</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18855</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18664999999999998</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2303125</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28247000000000005</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28744166666666665</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32597142857142858</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34443125000000002</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35160000000000002</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36732500000000001</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.40249090909090912</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3737625</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38173461538461539</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40712857142857145</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37346333333333337</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.44060625000000003</c:v>
+                  <c:v>620</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.42662647058823527</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.41528333333333334</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.43049473684210532</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.40723750000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.41178571428571431</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.4227727272727273</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.41941956521739127</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.43145</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.40784999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.42238846153846155</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.41567222222222222</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.43740892857142855</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.40404655172413789</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D84-4164-BF93-62D694DF94FC}"/>
+              <c16:uniqueId val="{00000000-6348-425E-BAA9-2E4FF818E494}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7111,17 +7946,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1143216751"/>
-        <c:axId val="591095775"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1143216751"/>
+        <c:axId val="933249168"/>
+        <c:axId val="1211895744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="933249168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7131,8 +7979,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -7159,15 +8007,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591095775"/>
+        <c:crossAx val="1211895744"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="591095775"/>
+        <c:axId val="1211895744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7193,8 +8038,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7218,9 +8069,835 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1143216751"/>
+        <c:crossAx val="933249168"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Wait Times vs Population'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Kids That Switched</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Best Wait Times vs Population'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Best Wait Times vs Population'!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>31.958333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.953333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.758333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.669230769230701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.416666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.293103448275829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.607812499999866</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.774999999999807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.767857142857153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.153846153846146</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.07340425531898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.769999999999911</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>125.22391304347806</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>108.46718749999982</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>132.34913793103433</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.39354838709679</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>126.03071428571411</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>126.2805194805192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134.63749999999979</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>151.93421052631578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A771-42F4-B8E6-770114EAB458}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="781585024"/>
+        <c:axId val="1211903904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="781585024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1211903904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1211903904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="781585024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Wait Times vs Population'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% of Kids that Switched</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Best Wait Times vs Population'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Best Wait Times vs Population'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>31.958333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.476666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.919444444444444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.917307692307675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.083333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.215517241379304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.229687499999981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.846874999999976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.529761904761905</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5153846153846153</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5521276595744524</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.897499999999992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6326086956521593</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.747656249999987</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8232758620689555</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2120967741935491</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.4135714285714176</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0155844155844003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0861842105263042</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.596710526315789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3E7-47DA-9871-6A5F8E036F3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1225628096"/>
+        <c:axId val="1270605952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1225628096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1270605952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1270605952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225628096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7348,6 +9025,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8420,7 +10177,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8447,8 +10204,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8528,11 +10285,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8543,11 +10295,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8559,7 +10306,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8579,9 +10326,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8594,10 +10338,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8637,22 +10381,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8757,8 +10502,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8890,19 +10635,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8916,6 +10662,1049 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8982,23 +11771,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733133ED-0F23-A35D-E6A7-806FB7BA8F52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F263F56-0D4F-2366-030B-EAD575533216}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C1A026-E1A3-1DD6-4DD3-8CB1CC5021D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9018,23 +11848,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE71C41-7E4B-0ABE-DDCE-D32234A90F6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018D5DB9-D490-07AD-A4E5-00D6D3A4EB29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9052,249 +11882,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717A7DC1-157B-DD3D-38A9-F135AFD44EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="out3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1">
-            <v>19.82</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>23.885000000000002</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>21.535</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>26.864999999999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>34.950000000000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>39.03</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>37.090000000000003</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>47.01</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>48.99</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>54.33</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>58.484999999999999</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>67.28</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>76.7</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>82.53</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>87.954999999999998</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>88.89</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>106.25</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>108.98</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>125.315</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>125.46</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>141.54</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>156.85499999999999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>156.715</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>176.38</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>163.75</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>170.74</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>172.655</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>163.89500000000001</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>197.51</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>226.52</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>228.59</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>208.26</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>232.52</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>250.56</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>241.11</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>263.255</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>278.16000000000003</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>252.875</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>256.78500000000003</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>311.64999999999998</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>280.625</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>327.48500000000001</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>328.33499999999998</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>353.41</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>361.51499999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9596,8 +12220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AB8B82-0469-448E-B303-B672489ABEE0}">
   <dimension ref="A1:B998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18591,390 +21215,1826 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F685DB-FFE5-4FB4-91BF-4E15192345D5}">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63FFF12-58E6-4910-ABE0-751C285FB104}">
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f>ROW() *100</f>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>ROW() * 10 + 20</f>
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <f>E2/200</f>
+        <v>0.41212499999999996</v>
+      </c>
+      <c r="C2">
+        <f>F2/500</f>
+        <v>0.55337000000000003</v>
+      </c>
+      <c r="D2">
+        <f>G2/1000</f>
+        <v>0.77426499999999998</v>
+      </c>
+      <c r="E2">
+        <v>82.424999999999997</v>
+      </c>
+      <c r="F2">
+        <v>276.685</v>
+      </c>
+      <c r="G2">
+        <v>774.26499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A48" si="0">ROW() * 10 + 20</f>
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B48" si="1">E3/200</f>
+        <v>0.32494999999999996</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C48" si="2">F3/500</f>
+        <v>0.46443000000000001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D48" si="3">G3/1000</f>
+        <v>0.57140499999999994</v>
+      </c>
+      <c r="E3">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="F3">
+        <v>232.215</v>
+      </c>
+      <c r="G3">
+        <v>571.40499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>0.25469999999999998</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>0.35226000000000002</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="3"/>
+        <v>0.46450999999999998</v>
+      </c>
+      <c r="E4">
+        <v>50.94</v>
+      </c>
+      <c r="F4">
+        <v>176.13</v>
+      </c>
+      <c r="G4">
+        <v>464.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>0.191575</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>0.32088</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>0.37452999999999997</v>
+      </c>
+      <c r="E5">
+        <v>38.314999999999998</v>
+      </c>
+      <c r="F5">
+        <v>160.44</v>
+      </c>
+      <c r="G5">
+        <v>374.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>0.16144999999999998</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>0.24403999999999998</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>0.34145500000000001</v>
+      </c>
+      <c r="E6">
+        <v>32.29</v>
+      </c>
+      <c r="F6">
+        <v>122.02</v>
+      </c>
+      <c r="G6">
+        <v>341.45499999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>0.21261000000000002</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>0.278615</v>
+      </c>
+      <c r="E7">
+        <v>28.24</v>
+      </c>
+      <c r="F7">
+        <v>106.30500000000001</v>
+      </c>
+      <c r="G7">
+        <v>278.61500000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="B1">
-        <v>23.3</v>
-      </c>
-      <c r="C1">
-        <f>B1/A1</f>
-        <v>0.23300000000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f t="shared" ref="A2:A29" si="0">ROW() *100</f>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>0.15869999999999998</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>0.17494999999999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0.26013999999999998</v>
+      </c>
+      <c r="E8">
+        <v>31.74</v>
+      </c>
+      <c r="F8">
+        <v>87.474999999999994</v>
+      </c>
+      <c r="G8">
+        <v>260.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0.14760000000000001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>0.13569000000000001</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>0.21612999999999999</v>
+      </c>
+      <c r="E9">
+        <v>29.52</v>
+      </c>
+      <c r="F9">
+        <v>67.844999999999999</v>
+      </c>
+      <c r="G9">
+        <v>216.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>0.11785</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>0.14607000000000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>0.19256999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>23.57</v>
+      </c>
+      <c r="F10">
+        <v>73.034999999999997</v>
+      </c>
+      <c r="G10">
+        <v>192.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>0.14675000000000002</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>0.16419</v>
+      </c>
+      <c r="E11">
+        <v>29.35</v>
+      </c>
+      <c r="F11">
+        <v>63.2</v>
+      </c>
+      <c r="G11">
+        <v>164.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>0.14377499999999999</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>0.10848000000000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>0.16305</v>
+      </c>
+      <c r="E12">
+        <v>28.754999999999999</v>
+      </c>
+      <c r="F12">
+        <v>54.24</v>
+      </c>
+      <c r="G12">
+        <v>163.05000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0.14377499999999999</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>0.1007</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>0.15328999999999998</v>
+      </c>
+      <c r="E13">
+        <v>28.754999999999999</v>
+      </c>
+      <c r="F13">
+        <v>50.35</v>
+      </c>
+      <c r="G13">
+        <v>153.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0.13797499999999999</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>8.6249999999999993E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>0.12479999999999999</v>
+      </c>
+      <c r="E14">
+        <v>27.594999999999999</v>
+      </c>
+      <c r="F14">
+        <v>43.125</v>
+      </c>
+      <c r="G14">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0.14355000000000001</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>9.3810000000000004E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>0.12734999999999999</v>
+      </c>
+      <c r="E15">
+        <v>28.71</v>
+      </c>
+      <c r="F15">
+        <v>46.905000000000001</v>
+      </c>
+      <c r="G15">
+        <v>127.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>0.1593</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>8.1700000000000009E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>0.11719499999999999</v>
+      </c>
+      <c r="E16">
+        <v>31.86</v>
+      </c>
+      <c r="F16">
+        <v>40.85</v>
+      </c>
+      <c r="G16">
+        <v>117.19499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>0.15210000000000001</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>7.826000000000001E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>7.9754999999999993E-2</v>
+      </c>
+      <c r="E17">
+        <v>30.42</v>
+      </c>
+      <c r="F17">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="G17">
+        <v>79.754999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="B2">
-        <v>37.71</v>
-      </c>
-      <c r="C2">
-        <f>B2/A2</f>
-        <v>0.18855</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>7.3819999999999997E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>0.10584499999999999</v>
+      </c>
+      <c r="E18">
+        <v>32.22</v>
+      </c>
+      <c r="F18">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="G18">
+        <v>105.845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>0.16717500000000002</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>7.6870000000000008E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>7.979E-2</v>
+      </c>
+      <c r="E19">
+        <v>33.435000000000002</v>
+      </c>
+      <c r="F19">
+        <v>38.435000000000002</v>
+      </c>
+      <c r="G19">
+        <v>79.790000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>0.17462499999999997</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>8.6324999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>34.924999999999997</v>
+      </c>
+      <c r="F20">
+        <v>39.15</v>
+      </c>
+      <c r="G20">
+        <v>86.325000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>0.17925000000000002</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>7.2919999999999999E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>7.1529999999999996E-2</v>
+      </c>
+      <c r="E21">
+        <v>35.85</v>
+      </c>
+      <c r="F21">
+        <v>36.46</v>
+      </c>
+      <c r="G21">
+        <v>71.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>0.168825</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>7.5939999999999994E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="E22">
+        <v>33.765000000000001</v>
+      </c>
+      <c r="F22">
+        <v>37.97</v>
+      </c>
+      <c r="G22">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>0.18239999999999998</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>6.5750000000000003E-2</v>
+      </c>
+      <c r="E23">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="F23">
+        <v>39.35</v>
+      </c>
+      <c r="G23">
+        <v>65.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>0.188975</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>7.9629999999999992E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="E24">
+        <v>37.795000000000002</v>
+      </c>
+      <c r="F24">
+        <v>39.814999999999998</v>
+      </c>
+      <c r="G24">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>0.199325</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>6.4989999999999992E-2</v>
+      </c>
+      <c r="E25">
+        <v>39.865000000000002</v>
+      </c>
+      <c r="F25" s="1">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G25">
+        <v>64.989999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>0.20342500000000002</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>7.621E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>5.8674999999999998E-2</v>
+      </c>
+      <c r="E26">
+        <v>40.685000000000002</v>
+      </c>
+      <c r="F26">
+        <v>38.104999999999997</v>
+      </c>
+      <c r="G26">
+        <v>58.674999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>0.19772500000000001</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>7.6370000000000007E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>5.8619999999999998E-2</v>
+      </c>
+      <c r="E27">
+        <v>39.545000000000002</v>
+      </c>
+      <c r="F27">
+        <v>38.185000000000002</v>
+      </c>
+      <c r="G27">
+        <v>58.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>0.20735000000000001</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>7.6849999999999988E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>5.7610000000000001E-2</v>
+      </c>
+      <c r="E28">
+        <v>41.47</v>
+      </c>
+      <c r="F28">
+        <v>38.424999999999997</v>
+      </c>
+      <c r="G28">
+        <v>57.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>0.22967500000000002</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>7.6340000000000005E-2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>5.4174999999999994E-2</v>
+      </c>
+      <c r="E29">
+        <v>45.935000000000002</v>
+      </c>
+      <c r="F29">
+        <v>38.17</v>
+      </c>
+      <c r="G29">
+        <v>54.174999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>0.23752500000000001</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>7.6310000000000003E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>5.5015000000000001E-2</v>
+      </c>
+      <c r="E30">
+        <v>47.505000000000003</v>
+      </c>
+      <c r="F30">
+        <v>38.155000000000001</v>
+      </c>
+      <c r="G30">
+        <v>55.015000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>0.25340000000000001</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>8.2930000000000004E-2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>5.5930000000000001E-2</v>
+      </c>
+      <c r="E31">
+        <v>50.68</v>
+      </c>
+      <c r="F31">
+        <v>41.465000000000003</v>
+      </c>
+      <c r="G31">
+        <v>55.93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>0.2427</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>7.7810000000000004E-2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>4.9424999999999997E-2</v>
+      </c>
+      <c r="E32">
+        <v>48.54</v>
+      </c>
+      <c r="F32">
+        <v>38.905000000000001</v>
+      </c>
+      <c r="G32">
+        <v>49.424999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>0.25727499999999998</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>8.4690000000000001E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>5.4984999999999999E-2</v>
+      </c>
+      <c r="E33">
+        <v>51.454999999999998</v>
+      </c>
+      <c r="F33">
+        <v>42.344999999999999</v>
+      </c>
+      <c r="G33">
+        <v>54.984999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>0.23675000000000002</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>7.8530000000000003E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>4.9169999999999998E-2</v>
+      </c>
+      <c r="E34">
+        <v>47.35</v>
+      </c>
+      <c r="F34">
+        <v>39.265000000000001</v>
+      </c>
+      <c r="G34">
+        <v>49.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>0.25980000000000003</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>8.7770000000000001E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>5.1060000000000001E-2</v>
+      </c>
+      <c r="E35">
+        <v>51.96</v>
+      </c>
+      <c r="F35">
+        <v>43.884999999999998</v>
+      </c>
+      <c r="G35">
+        <v>51.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>0.254575</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>9.484999999999999E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>4.761E-2</v>
+      </c>
+      <c r="E36">
+        <v>50.914999999999999</v>
+      </c>
+      <c r="F36">
+        <v>47.424999999999997</v>
+      </c>
+      <c r="G36">
+        <v>47.61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>0.278775</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>8.4839999999999999E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>4.9869999999999998E-2</v>
+      </c>
+      <c r="E37">
+        <v>55.755000000000003</v>
+      </c>
+      <c r="F37">
+        <v>42.42</v>
+      </c>
+      <c r="G37">
+        <v>49.87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>0.28517499999999996</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>8.8340000000000002E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>5.0889999999999998E-2</v>
+      </c>
+      <c r="E38">
+        <v>57.034999999999997</v>
+      </c>
+      <c r="F38">
+        <v>44.17</v>
+      </c>
+      <c r="G38">
+        <v>50.89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>0.289325</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>9.040999999999999E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>5.1360000000000003E-2</v>
+      </c>
+      <c r="E39">
+        <v>57.865000000000002</v>
+      </c>
+      <c r="F39">
+        <v>45.204999999999998</v>
+      </c>
+      <c r="G39">
+        <v>51.36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>0.29707499999999998</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>9.1010000000000008E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>4.9149999999999999E-2</v>
+      </c>
+      <c r="E40">
+        <v>59.414999999999999</v>
+      </c>
+      <c r="F40">
+        <v>45.505000000000003</v>
+      </c>
+      <c r="G40">
+        <v>49.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>0.28175</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>9.3920000000000003E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>4.5520000000000005E-2</v>
+      </c>
+      <c r="E41">
+        <v>56.35</v>
+      </c>
+      <c r="F41">
+        <v>46.96</v>
+      </c>
+      <c r="G41" s="1">
+        <v>45.52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>9.5610000000000001E-2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>4.9884999999999999E-2</v>
+      </c>
+      <c r="E42">
+        <v>61.44</v>
+      </c>
+      <c r="F42">
+        <v>47.805</v>
+      </c>
+      <c r="G42">
+        <v>49.884999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>0.324075</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>9.5829999999999999E-2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>4.8505E-2</v>
+      </c>
+      <c r="E43">
+        <v>64.814999999999998</v>
+      </c>
+      <c r="F43">
+        <v>47.914999999999999</v>
+      </c>
+      <c r="G43">
+        <v>48.505000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>0.31909999999999999</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>4.863E-2</v>
+      </c>
+      <c r="E44">
+        <v>63.82</v>
+      </c>
+      <c r="F44">
+        <v>46.35</v>
+      </c>
+      <c r="G44">
+        <v>48.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>470</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>0.33034999999999998</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>9.7220000000000001E-2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>4.7484999999999999E-2</v>
+      </c>
+      <c r="E45">
+        <v>66.069999999999993</v>
+      </c>
+      <c r="F45">
+        <v>48.61</v>
+      </c>
+      <c r="G45">
+        <v>47.484999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>9.4780000000000003E-2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>4.6695E-2</v>
+      </c>
+      <c r="E46">
+        <v>69.28</v>
+      </c>
+      <c r="F46">
+        <v>47.39</v>
+      </c>
+      <c r="G46">
+        <v>46.695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>0.34412500000000001</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>9.7269999999999995E-2</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="3"/>
+        <v>4.7755000000000006E-2</v>
+      </c>
+      <c r="E47">
+        <v>68.825000000000003</v>
+      </c>
+      <c r="F47">
+        <v>48.634999999999998</v>
+      </c>
+      <c r="G47">
+        <v>47.755000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>0.34117500000000001</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>0.10529000000000001</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>5.0650000000000001E-2</v>
+      </c>
+      <c r="E48">
+        <v>68.234999999999999</v>
+      </c>
+      <c r="F48">
+        <v>52.645000000000003</v>
+      </c>
+      <c r="G48">
+        <v>50.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953944E5-87CF-407C-A359-85AD5F0658F4}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>(ROW() - 1) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>0.20175000000000001</v>
+      </c>
+      <c r="D2">
+        <f>C2 * A2</f>
+        <v>20.175000000000001</v>
+      </c>
+      <c r="E2">
+        <f>(D2 -1)/ B2 *100</f>
+        <v>31.958333333333332</v>
+      </c>
+      <c r="F2">
+        <f xml:space="preserve"> (D2 -1)/ B2 * A2</f>
+        <v>31.958333333333332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A21" si="0">(ROW() - 1) * 100</f>
+        <v>200</v>
+      </c>
       <c r="B3">
-        <v>55.994999999999997</v>
+        <v>150</v>
       </c>
       <c r="C3">
-        <f>B3/A3</f>
-        <v>0.18664999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.12857499999999999</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D21" si="1">C3 * A3</f>
+        <v>25.715</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="2">(D3 -1)/ B3 *100</f>
+        <v>16.476666666666667</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="3" xml:space="preserve"> (D3 -1)/ B3 * A3</f>
+        <v>32.953333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B4">
-        <v>92.125</v>
+        <v>180</v>
       </c>
       <c r="C4">
-        <f>B4/A4</f>
-        <v>0.2303125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.8849999999999993E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>29.654999999999998</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>15.919444444444444</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>47.758333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B5">
-        <v>141.23500000000001</v>
+        <v>260</v>
       </c>
       <c r="C5">
-        <f>B5/A5</f>
-        <v>0.28247000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.9962499999999895E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>31.984999999999957</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>11.917307692307675</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>47.669230769230701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B6">
-        <v>172.465</v>
+        <v>330</v>
       </c>
       <c r="C6">
-        <f>B6/A6</f>
-        <v>0.28744166666666665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.855E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>34.274999999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>10.083333333333332</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>50.416666666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B7">
-        <v>228.18</v>
+        <v>290</v>
       </c>
       <c r="C7">
-        <f>B7/A7</f>
-        <v>0.32597142857142858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.0708333333333302E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>36.424999999999983</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>12.215517241379304</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>73.293103448275829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B8">
-        <v>275.54500000000002</v>
+        <v>320</v>
       </c>
       <c r="C8">
-        <f>B8/A8</f>
-        <v>0.34443125000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.7335714285714198E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>40.134999999999941</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>12.229687499999981</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>85.607812499999866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="B9">
-        <v>316.44</v>
+        <v>320</v>
       </c>
       <c r="C9">
-        <f>B9/A9</f>
-        <v>0.35160000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.8637499999999903E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>38.909999999999926</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>11.846874999999976</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>94.774999999999807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B10">
-        <v>367.32499999999999</v>
+        <v>420</v>
       </c>
       <c r="C10">
-        <f>B10/A10</f>
-        <v>0.36732500000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.0250000000000003E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>45.225000000000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>10.529761904761905</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>94.767857142857153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="B11">
-        <v>442.74</v>
+        <v>520</v>
       </c>
       <c r="C11">
-        <f>B11/A11</f>
-        <v>0.40249090909090912</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.5280000000000001E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>45.28</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>8.5153846153846153</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>85.153846153846146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="B12">
-        <v>448.51499999999999</v>
+        <v>470</v>
       </c>
       <c r="C12">
-        <f>B12/A12</f>
-        <v>0.3737625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.1722727272727203E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>45.894999999999925</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>9.5521276595744524</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>105.07340425531898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="B13">
-        <v>496.255</v>
+        <v>600</v>
       </c>
       <c r="C13">
-        <f>B13/A13</f>
-        <v>0.38173461538461539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.0320833333333299E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>48.384999999999955</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>7.897499999999992</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>94.769999999999911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="B14">
-        <v>569.98</v>
+        <v>460</v>
       </c>
       <c r="C14">
-        <f>B14/A14</f>
-        <v>0.40712857142857145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4853846153846103E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>45.309999999999931</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>9.6326086956521593</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>125.22391304347806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="B15">
-        <v>560.19500000000005</v>
+        <v>640</v>
       </c>
       <c r="C15">
-        <f>B15/A15</f>
-        <v>0.37346333333333337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.61321428571428E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>50.584999999999923</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>7.747656249999987</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>108.46718749999982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="B16">
-        <v>704.97</v>
+        <v>580</v>
       </c>
       <c r="C16">
-        <f>B16/A16</f>
-        <v>0.44060625000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4783333333333298E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>52.174999999999947</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>8.8232758620689555</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>132.34913793103433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="B17">
-        <v>725.26499999999999</v>
+        <v>620</v>
       </c>
       <c r="C17">
-        <f>B17/A17</f>
-        <v>0.42662647058823527</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.2446875E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>51.914999999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>8.2120967741935491</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>131.39354838709679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="B18">
-        <v>747.51</v>
+        <v>700</v>
       </c>
       <c r="C18">
-        <f>B18/A18</f>
-        <v>0.41528333333333334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.1114705882352899E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>52.894999999999925</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>7.4135714285714176</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>126.03071428571411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="B19">
-        <v>817.94</v>
+        <v>770</v>
       </c>
       <c r="C19">
-        <f>B19/A19</f>
-        <v>0.43049473684210532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.05666666666666E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>55.019999999999882</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>7.0155844155844003</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>126.2805194805192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="B20">
-        <v>814.47500000000002</v>
+        <v>760</v>
       </c>
       <c r="C20">
-        <f>B20/A20</f>
-        <v>0.40723750000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.8871052631578902E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>54.854999999999912</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>7.0861842105263042</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>134.63749999999979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="B21">
-        <v>864.75</v>
+        <v>760</v>
       </c>
       <c r="C21">
-        <f>B21/A21</f>
-        <v>0.41178571428571431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>2200</v>
-      </c>
-      <c r="B22">
-        <v>930.1</v>
-      </c>
-      <c r="C22">
-        <f>B22/A22</f>
-        <v>0.4227727272727273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>2300</v>
-      </c>
-      <c r="B23">
-        <v>964.66499999999996</v>
-      </c>
-      <c r="C23">
-        <f>B23/A23</f>
-        <v>0.41941956521739127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="B24">
-        <v>1035.48</v>
-      </c>
-      <c r="C24">
-        <f>B24/A24</f>
-        <v>0.43145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="B25">
-        <v>1019.625</v>
-      </c>
-      <c r="C25">
-        <f>B25/A25</f>
-        <v>0.40784999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>2600</v>
-      </c>
-      <c r="B26">
-        <v>1098.21</v>
-      </c>
-      <c r="C26">
-        <f>B26/A26</f>
-        <v>0.42238846153846155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>2700</v>
-      </c>
-      <c r="B27">
-        <v>1122.3150000000001</v>
-      </c>
-      <c r="C27">
-        <f>B27/A27</f>
-        <v>0.41567222222222222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>2800</v>
-      </c>
-      <c r="B28">
-        <v>1224.7449999999999</v>
-      </c>
-      <c r="C28">
-        <f>B28/A28</f>
-        <v>0.43740892857142855</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>2900</v>
-      </c>
-      <c r="B29">
-        <v>1171.7349999999999</v>
-      </c>
-      <c r="C29">
-        <f>B29/A29</f>
-        <v>0.40404655172413789</v>
+        <v>2.9367500000000001E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>58.734999999999999</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>7.596710526315789</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>151.93421052631578</v>
       </c>
     </row>
   </sheetData>
